--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P15_trail1 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P15_trail1 Features.xlsx
@@ -4318,7 +4318,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.685356126042577</v>
+        <v>1.702383013320285</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.741816986837188</v>
@@ -4407,7 +4407,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.723361077792512</v>
+        <v>1.7339932967477</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.494738654456787</v>
@@ -4496,7 +4496,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.706712198952262</v>
+        <v>1.725193672310769</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.780750570968059</v>
@@ -4585,7 +4585,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.717373239036786</v>
+        <v>1.731947904721946</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.873649517041608</v>
@@ -4674,7 +4674,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.775818702477498</v>
+        <v>1.774136495540501</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.048002156319538</v>
@@ -4763,7 +4763,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.771374337146109</v>
+        <v>1.766271955766139</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.815454234605477</v>
@@ -4852,7 +4852,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.767701399487459</v>
+        <v>1.765710378882108</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.778064170839749</v>
@@ -4941,7 +4941,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.771588259027403</v>
+        <v>1.770397761233879</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.760714620545376</v>
@@ -5030,7 +5030,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.751379868124522</v>
+        <v>1.75269322447341</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.735966203373088</v>
@@ -5119,7 +5119,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.769680248283143</v>
+        <v>1.772895909378986</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.797469421022481</v>
@@ -5208,7 +5208,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.775105808320103</v>
+        <v>1.780322655189803</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.94556093495541</v>
@@ -5297,7 +5297,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.776801339749656</v>
+        <v>1.780180297509986</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.871405255348446</v>
@@ -5386,7 +5386,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.780135432115019</v>
+        <v>1.78174288282126</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.874574338375059</v>
@@ -5475,7 +5475,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.786507535210049</v>
+        <v>1.78732706883769</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.577630634931775</v>
@@ -5564,7 +5564,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.790115690847524</v>
+        <v>1.79218082550502</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.564819738326849</v>
@@ -5653,7 +5653,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.786987806757179</v>
+        <v>1.790284089905455</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.6021913187612</v>
@@ -5742,7 +5742,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.796847502117928</v>
+        <v>1.79101434451083</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.658324642396366</v>
@@ -5831,7 +5831,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.846604460470961</v>
+        <v>1.836093979888929</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.56599120951652</v>
@@ -5920,7 +5920,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.844004651171959</v>
+        <v>1.833133453030589</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.586129640364124</v>
@@ -6009,7 +6009,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.83699747961095</v>
+        <v>1.828677833787473</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.551903499128211</v>
@@ -6098,7 +6098,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.796043424664722</v>
+        <v>1.801304860981745</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.714035183867975</v>
@@ -6187,7 +6187,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.800661887090346</v>
+        <v>1.803214417092979</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.625979635271309</v>
@@ -6276,7 +6276,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.795970392430738</v>
+        <v>1.800401280704258</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.59224371110787</v>
@@ -6365,7 +6365,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.822586123995821</v>
+        <v>1.828597970407008</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.620682741968898</v>
@@ -6454,7 +6454,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.823627445916514</v>
+        <v>1.827965342531674</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.599518383059505</v>
@@ -6543,7 +6543,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.827885266263283</v>
+        <v>1.831834088278444</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.569154368283962</v>
@@ -6632,7 +6632,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.82485096350729</v>
+        <v>1.827237217963554</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.493812995615556</v>
@@ -6721,7 +6721,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.79052276732183</v>
+        <v>1.791322215636348</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.570205125569034</v>
@@ -6810,7 +6810,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.825705362506584</v>
+        <v>1.822559048433237</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.695561894923101</v>
@@ -6899,7 +6899,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.825901351985271</v>
+        <v>1.823493253198353</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.66318680397205</v>
@@ -6988,7 +6988,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.825765805973706</v>
+        <v>1.827935048818859</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.801000948041885</v>
@@ -7077,7 +7077,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.829083736562567</v>
+        <v>1.832221724732524</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.703044149803462</v>
@@ -7166,7 +7166,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.829359773994558</v>
+        <v>1.824893489540564</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.558427462815736</v>
@@ -7255,7 +7255,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.805123149124929</v>
+        <v>1.812378535630829</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.821638233138504</v>
@@ -7344,7 +7344,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.818761702387349</v>
+        <v>1.821514940091243</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.491510349945086</v>
@@ -7433,7 +7433,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.859541676405969</v>
+        <v>1.861140525954884</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.715614899870292</v>
@@ -7522,7 +7522,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.832740335278911</v>
+        <v>1.835838170420317</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.832579540320781</v>
@@ -7611,7 +7611,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.831040611114402</v>
+        <v>1.840172761288611</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.736467203749003</v>
@@ -7700,7 +7700,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.835418880467147</v>
+        <v>1.841466548313949</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.008541261895539</v>
@@ -7789,7 +7789,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.829484647442894</v>
+        <v>1.840603238872506</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.815678945748057</v>
@@ -7878,7 +7878,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.82948968018381</v>
+        <v>1.841679161774816</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.817117940675227</v>
@@ -7967,7 +7967,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.833083280234621</v>
+        <v>1.850772967897555</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.94946744793466</v>
@@ -8253,7 +8253,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.762619332316027</v>
+        <v>1.768230670921711</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.821974708032109</v>
@@ -8342,7 +8342,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.767320929005608</v>
+        <v>1.767804571776221</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.63060976745089</v>
@@ -8431,7 +8431,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.759576133365278</v>
+        <v>1.761131892181352</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.628472989896153</v>
@@ -8520,7 +8520,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.759350959651299</v>
+        <v>1.761805463521977</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.656832915883531</v>
@@ -8609,7 +8609,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.76160771932046</v>
+        <v>1.759216740896401</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.421034594452414</v>
@@ -8698,7 +8698,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.752507591824614</v>
+        <v>1.742648724799867</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.434550878808859</v>
@@ -8787,7 +8787,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.74384098428591</v>
+        <v>1.728902472339774</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.586551936497555</v>
@@ -8876,7 +8876,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.724587258274708</v>
+        <v>1.71261441529858</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.464805245324483</v>
@@ -8965,7 +8965,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.71821523724317</v>
+        <v>1.706128719594421</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.45870009450443</v>
@@ -9054,7 +9054,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.710725595167707</v>
+        <v>1.702640714745845</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.376404658450521</v>
@@ -9143,7 +9143,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.706269268303077</v>
+        <v>1.695508513444324</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.618780471974</v>
@@ -9232,7 +9232,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.695107065199135</v>
+        <v>1.685980497491704</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.532078398881276</v>
@@ -9321,7 +9321,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.701779086514207</v>
+        <v>1.688220434104934</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.855413993328144</v>
@@ -9410,7 +9410,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.707553042131913</v>
+        <v>1.693042767684544</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.466133048287876</v>
@@ -9499,7 +9499,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.701030632547134</v>
+        <v>1.686173972801698</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.373477263626742</v>
@@ -9588,7 +9588,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.689279534024973</v>
+        <v>1.675159004583038</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.573818107117818</v>
@@ -9677,7 +9677,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.696626138123169</v>
+        <v>1.677005070065822</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.190695029130253</v>
@@ -9766,7 +9766,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.687878114867597</v>
+        <v>1.671768327506565</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.670082961706604</v>
@@ -9855,7 +9855,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.689089156086685</v>
+        <v>1.672586087150626</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.591525867533655</v>
@@ -9944,7 +9944,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.685893234617973</v>
+        <v>1.672526787514038</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.584385999672907</v>
@@ -10033,7 +10033,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.67144409857092</v>
+        <v>1.660980792084473</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.507390876372073</v>
@@ -10122,7 +10122,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.659372072539128</v>
+        <v>1.652922059729166</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.077612929842263</v>
@@ -10211,7 +10211,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.660862750225872</v>
+        <v>1.656017319341314</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.469530099385352</v>
@@ -10300,7 +10300,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.65854516396633</v>
+        <v>1.655863073174925</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.376436653128655</v>
@@ -10389,7 +10389,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.658973017821235</v>
+        <v>1.652465733081105</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.156435122711978</v>
@@ -10478,7 +10478,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.657420866433037</v>
+        <v>1.65097858256519</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.325591750418321</v>
@@ -10567,7 +10567,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.672037328146051</v>
+        <v>1.663544769736435</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.368543550188971</v>
@@ -10656,7 +10656,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.672514743565691</v>
+        <v>1.663188532493144</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.161011147468731</v>
@@ -10745,7 +10745,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.658764279042932</v>
+        <v>1.646098486966161</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.988177685684526</v>
@@ -10834,7 +10834,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.634816373223292</v>
+        <v>1.623919176078569</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.394828143354972</v>
@@ -10923,7 +10923,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.625245837225332</v>
+        <v>1.623679105038201</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.381416279136078</v>
@@ -11012,7 +11012,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.614907673438688</v>
+        <v>1.608835234142676</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.217672358818169</v>
@@ -11101,7 +11101,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.627329235663534</v>
+        <v>1.620970714956051</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.295403990823483</v>
@@ -11190,7 +11190,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.620332007281785</v>
+        <v>1.615915269337926</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.874988881077012</v>
@@ -11279,7 +11279,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.611808567589496</v>
+        <v>1.607650076904395</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.255322496720924</v>
@@ -11368,7 +11368,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.603135264218231</v>
+        <v>1.595750142534592</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.272730295516618</v>
@@ -11457,7 +11457,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.609400863099417</v>
+        <v>1.602521394446872</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.148205029980993</v>
@@ -11546,7 +11546,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.597339865375206</v>
+        <v>1.590762615315815</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.241851030900393</v>
@@ -11635,7 +11635,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.594643779530195</v>
+        <v>1.58894493816512</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.069480789281522</v>
@@ -11724,7 +11724,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.582392213734169</v>
+        <v>1.580910604747981</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.071042452472763</v>
@@ -11813,7 +11813,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.588974307325552</v>
+        <v>1.585684165378157</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.051974773563537</v>
@@ -11902,7 +11902,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.574769140651951</v>
+        <v>1.574646909131556</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.084449562222964</v>
@@ -12188,7 +12188,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.609830931494916</v>
+        <v>1.639387927545643</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.115885959201949</v>
@@ -12277,7 +12277,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.613583670767852</v>
+        <v>1.64354303686387</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.741623058810865</v>
@@ -12366,7 +12366,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.628067123516374</v>
+        <v>1.651759523968668</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.044700910712777</v>
@@ -12455,7 +12455,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.616610060720989</v>
+        <v>1.643864883077628</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.147693061551576</v>
@@ -12544,7 +12544,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.643747040959921</v>
+        <v>1.665227359852725</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.015958917588805</v>
@@ -12633,7 +12633,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.627557616289485</v>
+        <v>1.652401195981392</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.04669917259929</v>
@@ -12722,7 +12722,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.610992408955845</v>
+        <v>1.629900574752841</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.077748378469977</v>
@@ -12811,7 +12811,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.600567614819782</v>
+        <v>1.627758205664964</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.958206879703615</v>
@@ -12900,7 +12900,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.575671309162816</v>
+        <v>1.604188636848777</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.929773380518867</v>
@@ -12989,7 +12989,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.590338042593753</v>
+        <v>1.6218829703206</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.679678859423674</v>
@@ -13078,7 +13078,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.598599645898351</v>
+        <v>1.628459884175713</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.795915649089889</v>
@@ -13167,7 +13167,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.612161758307977</v>
+        <v>1.645105306841404</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.893879801245022</v>
@@ -13256,7 +13256,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.614983498514771</v>
+        <v>1.645376512371903</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.742863702629848</v>
@@ -13345,7 +13345,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.613861835496162</v>
+        <v>1.639262628503328</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.776343590212241</v>
@@ -13434,7 +13434,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.627482365606323</v>
+        <v>1.650684190159866</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.749291509892982</v>
@@ -13523,7 +13523,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.625344581558886</v>
+        <v>1.650131964944108</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.900179854563353</v>
@@ -13612,7 +13612,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.64370849303643</v>
+        <v>1.660361236363065</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.868587895273661</v>
@@ -13701,7 +13701,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.606958745782185</v>
+        <v>1.635869602086512</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.747454980687924</v>
@@ -13790,7 +13790,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.592634500041136</v>
+        <v>1.622544490826503</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.752196190290402</v>
@@ -13879,7 +13879,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.595852729476179</v>
+        <v>1.625153901729202</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.714643274842583</v>
@@ -13968,7 +13968,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.603511881415274</v>
+        <v>1.627086672330674</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.553148381319513</v>
@@ -14057,7 +14057,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.612239368824382</v>
+        <v>1.632923585024902</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.380347090034366</v>
@@ -14146,7 +14146,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.614683273787206</v>
+        <v>1.634146977491071</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.761334314768192</v>
@@ -14235,7 +14235,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.632814215283645</v>
+        <v>1.649400730496658</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.779698909896042</v>
@@ -14324,7 +14324,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.635403616250142</v>
+        <v>1.650150395829489</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.708795363347496</v>
@@ -14413,7 +14413,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.642576160277522</v>
+        <v>1.652741840125817</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.75014489314257</v>
@@ -14502,7 +14502,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.638518471388126</v>
+        <v>1.649549839292798</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.815899114253223</v>
@@ -14591,7 +14591,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.632755342482073</v>
+        <v>1.646794653362066</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.728748387911179</v>
@@ -14680,7 +14680,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.630781163315017</v>
+        <v>1.652156695539612</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.808408739111179</v>
@@ -14769,7 +14769,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.632573065645892</v>
+        <v>1.655296635037304</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.669207623714991</v>
@@ -14858,7 +14858,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.637481317721737</v>
+        <v>1.663187705941596</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.739431979405179</v>
@@ -14947,7 +14947,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.639552785180774</v>
+        <v>1.666989728361957</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.862560108145203</v>
@@ -15036,7 +15036,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.674172503541793</v>
+        <v>1.699381076720375</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.841700547308248</v>
@@ -15125,7 +15125,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.692580622664191</v>
+        <v>1.72052197271003</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.117814967461418</v>
@@ -15214,7 +15214,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.694596497615861</v>
+        <v>1.72432395243332</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.693953613982696</v>
@@ -15303,7 +15303,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.702273212876695</v>
+        <v>1.729582101751928</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.106429275078141</v>
@@ -15392,7 +15392,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.684838957483099</v>
+        <v>1.717849126995929</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.893330282450323</v>
@@ -15481,7 +15481,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.695275009279548</v>
+        <v>1.723049493334349</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.801152643677281</v>
@@ -15570,7 +15570,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.71067582381691</v>
+        <v>1.739207465065565</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.995205572685784</v>
@@ -15659,7 +15659,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.712323968813425</v>
+        <v>1.739996558806387</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.071348781149233</v>
@@ -15748,7 +15748,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.711542568418911</v>
+        <v>1.741496694722978</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.046665278414172</v>
@@ -15837,7 +15837,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.707793794540424</v>
+        <v>1.736996449781634</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.875088789951603</v>
@@ -16123,7 +16123,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.776939195008355</v>
+        <v>1.753711044634754</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.184179995079825</v>
@@ -16212,7 +16212,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.753602808471833</v>
+        <v>1.736256707299877</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.047610069813518</v>
@@ -16301,7 +16301,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.753923026390792</v>
+        <v>1.741008038431335</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.971535830106663</v>
@@ -16390,7 +16390,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.74598299040338</v>
+        <v>1.728595042598417</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.119518061543248</v>
@@ -16479,7 +16479,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.757137014732379</v>
+        <v>1.735675512874073</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.972988134998763</v>
@@ -16568,7 +16568,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.741164276073518</v>
+        <v>1.720385571119577</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.072775202194745</v>
@@ -16657,7 +16657,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.734313240472273</v>
+        <v>1.715197143931674</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.101458134330277</v>
@@ -16746,7 +16746,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.731430985585992</v>
+        <v>1.717207456907413</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.114756367000854</v>
@@ -16835,7 +16835,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.722968711670378</v>
+        <v>1.718340719935647</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.169202419528294</v>
@@ -16924,7 +16924,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.715510247194087</v>
+        <v>1.720788874053506</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.191384857765533</v>
@@ -17013,7 +17013,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.7101093995125</v>
+        <v>1.718084415428061</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.991690413210482</v>
@@ -17102,7 +17102,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.726179095979514</v>
+        <v>1.731517522269315</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.948665084964033</v>
@@ -17191,7 +17191,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.734298341055104</v>
+        <v>1.741897349653953</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.192659629414419</v>
@@ -17280,7 +17280,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.744820079988751</v>
+        <v>1.75196069371928</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.217147397948627</v>
@@ -17369,7 +17369,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.750038204121965</v>
+        <v>1.757811147912078</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.955479604330057</v>
@@ -17458,7 +17458,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.762190073685868</v>
+        <v>1.770744985403887</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.957080937650818</v>
@@ -17547,7 +17547,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.779212967527425</v>
+        <v>1.780917941724334</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.36861866025661</v>
@@ -17636,7 +17636,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.796515912999924</v>
+        <v>1.797576922737462</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.620894135477855</v>
@@ -17725,7 +17725,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.79760023458305</v>
+        <v>1.799401889436486</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.19250079605493</v>
@@ -17814,7 +17814,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.799917687725757</v>
+        <v>1.799552050745672</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.727071678142667</v>
@@ -17903,7 +17903,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.796723819558036</v>
+        <v>1.799001553929933</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.221936558581363</v>
@@ -17992,7 +17992,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.799304006028393</v>
+        <v>1.799095286292492</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.196749484336254</v>
@@ -18081,7 +18081,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.81144569306576</v>
+        <v>1.814523410035624</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.45681135330289</v>
@@ -18170,7 +18170,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.824486536230986</v>
+        <v>1.826777157626588</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.374270051297196</v>
@@ -18259,7 +18259,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.84850291825024</v>
+        <v>1.843825546429154</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.095503188134771</v>
@@ -18348,7 +18348,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.843064117415163</v>
+        <v>1.84360229105104</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.584813847980604</v>
@@ -18437,7 +18437,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.835049073984107</v>
+        <v>1.837995597725285</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.6220395640337</v>
@@ -18526,7 +18526,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.822078588472651</v>
+        <v>1.821105413135112</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.427570790411995</v>
@@ -18615,7 +18615,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.823131204270658</v>
+        <v>1.821488410120518</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.508063136328416</v>
@@ -18704,7 +18704,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.823026201269764</v>
+        <v>1.822563500546218</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.191592276105479</v>
@@ -18793,7 +18793,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.837198389294985</v>
+        <v>1.840242782667897</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.812538834250778</v>
@@ -18882,7 +18882,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.840475765105451</v>
+        <v>1.842077001349238</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.362445368783316</v>
@@ -18971,7 +18971,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.839155431484113</v>
+        <v>1.837155823600334</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.308396883058658</v>
@@ -19060,7 +19060,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.834723010620625</v>
+        <v>1.833324596959681</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.687055914268339</v>
@@ -19149,7 +19149,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.838460640502281</v>
+        <v>1.837649550133929</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.273964491710875</v>
@@ -19238,7 +19238,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.846696660331292</v>
+        <v>1.845311085305517</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.686340530565041</v>
@@ -19327,7 +19327,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.839218725630713</v>
+        <v>1.843790408890131</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.822609608647011</v>
@@ -19416,7 +19416,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.823701986512084</v>
+        <v>1.828706359947578</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.744436263355739</v>
@@ -19505,7 +19505,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.815410817079728</v>
+        <v>1.82207731471108</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.719522197810635</v>
@@ -19594,7 +19594,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.823237122166506</v>
+        <v>1.831222744500668</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.231987985322513</v>
@@ -19683,7 +19683,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.818227361383936</v>
+        <v>1.830154970007686</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.589969848039892</v>
@@ -19772,7 +19772,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.827511499914696</v>
+        <v>1.837595276803359</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>4.073956313062032</v>
@@ -20058,7 +20058,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.717515118088024</v>
+        <v>1.730348858274668</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.977642620357327</v>
@@ -20147,7 +20147,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.721687120247721</v>
+        <v>1.732143070843888</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.829022765077442</v>
@@ -20236,7 +20236,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.722250920760919</v>
+        <v>1.72354807755578</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.906390949420752</v>
@@ -20325,7 +20325,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.690926499813147</v>
+        <v>1.685919238469851</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.662599493762365</v>
@@ -20414,7 +20414,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.703756288514162</v>
+        <v>1.698884086039367</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.339051231739</v>
@@ -20503,7 +20503,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.690665291196641</v>
+        <v>1.682470757029898</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.544609419577126</v>
@@ -20592,7 +20592,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.676305506924809</v>
+        <v>1.672712321774872</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.473560466019547</v>
@@ -20681,7 +20681,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.677215946592285</v>
+        <v>1.671520790508238</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.46937294312714</v>
@@ -20770,7 +20770,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.668656185414095</v>
+        <v>1.66291200958589</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.534106205821932</v>
@@ -20859,7 +20859,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.668972524562594</v>
+        <v>1.666666506683813</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.221227307258</v>
@@ -20948,7 +20948,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.68947988679713</v>
+        <v>1.678919883967134</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.735076207001034</v>
@@ -21037,7 +21037,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.686554808357565</v>
+        <v>1.675350005913549</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.324162572158853</v>
@@ -21126,7 +21126,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.690393230352434</v>
+        <v>1.678353876718894</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.356356447751462</v>
@@ -21215,7 +21215,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.682286151392863</v>
+        <v>1.673181462042808</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.247548633282106</v>
@@ -21304,7 +21304,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.682111039778686</v>
+        <v>1.673035706493356</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.181736383469189</v>
@@ -21393,7 +21393,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.676323669640705</v>
+        <v>1.660944696533358</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.018463369321084</v>
@@ -21482,7 +21482,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.668241397449557</v>
+        <v>1.658070064936986</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.070025561306465</v>
@@ -21571,7 +21571,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.680917612773016</v>
+        <v>1.673697047609909</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.883019327043411</v>
@@ -21660,7 +21660,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.683483699698209</v>
+        <v>1.674606586289956</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.273966478129479</v>
@@ -21749,7 +21749,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.677978650420446</v>
+        <v>1.660990209701747</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.235143573405317</v>
@@ -21838,7 +21838,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.664529654267512</v>
+        <v>1.654416393241674</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.930096625664614</v>
@@ -21927,7 +21927,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.669122767067565</v>
+        <v>1.655472425095588</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.013589069374718</v>
@@ -22016,7 +22016,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.666576027467018</v>
+        <v>1.661088469450557</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.234135769454438</v>
@@ -22105,7 +22105,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.680481230001183</v>
+        <v>1.673348985670698</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.188066231850406</v>
@@ -22194,7 +22194,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.676120622172929</v>
+        <v>1.672675125742744</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.777502351743794</v>
@@ -22283,7 +22283,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.673773042442426</v>
+        <v>1.673773173184912</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.168655591820101</v>
@@ -22372,7 +22372,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.673690769254823</v>
+        <v>1.673729178523635</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.987920523203008</v>
@@ -22461,7 +22461,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.66472870720465</v>
+        <v>1.666264620480838</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.762334594400378</v>
@@ -22550,7 +22550,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.678232982113322</v>
+        <v>1.672800360104797</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.015681782445303</v>
@@ -22639,7 +22639,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.668364010928295</v>
+        <v>1.662950202840739</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.996302278421543</v>
@@ -22728,7 +22728,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.689994761986871</v>
+        <v>1.680785005362577</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.749482962766491</v>
@@ -22817,7 +22817,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.671975943631477</v>
+        <v>1.661436743883968</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.093385622415979</v>
@@ -22906,7 +22906,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.667862869409257</v>
+        <v>1.654355673952894</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.843576797133674</v>
@@ -22995,7 +22995,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.647252721228209</v>
+        <v>1.642053373627549</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.092219807079268</v>
@@ -23084,7 +23084,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.65234983170327</v>
+        <v>1.652762298588799</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.596771563600147</v>
@@ -23173,7 +23173,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.669874637727764</v>
+        <v>1.671630036605676</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.960643453102821</v>
@@ -23262,7 +23262,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.657744914076763</v>
+        <v>1.661897820368924</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.436310540497287</v>
@@ -23351,7 +23351,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.660588181682617</v>
+        <v>1.663368185946917</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.287805213183565</v>
@@ -23440,7 +23440,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.66466590990122</v>
+        <v>1.666827289272078</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.480218139240631</v>
@@ -23529,7 +23529,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.673148738892981</v>
+        <v>1.672058623813342</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.467867269935489</v>
@@ -23618,7 +23618,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.677101962732465</v>
+        <v>1.671410813052006</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.238075447955102</v>
@@ -23707,7 +23707,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.669734296825647</v>
+        <v>1.666164432416039</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.187561672998383</v>
@@ -23993,7 +23993,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.690169228733211</v>
+        <v>1.726837354235895</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.736891288918931</v>
@@ -24082,7 +24082,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.718218061802735</v>
+        <v>1.751484314225257</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.580033472723827</v>
@@ -24171,7 +24171,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.7220287476508</v>
+        <v>1.754498911555852</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.720479576761745</v>
@@ -24260,7 +24260,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.730681541467907</v>
+        <v>1.760722254057188</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.968503180272035</v>
@@ -24349,7 +24349,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.778946842939856</v>
+        <v>1.800899717259628</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.018550498604576</v>
@@ -24438,7 +24438,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.785279124936612</v>
+        <v>1.803867178217427</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.865020542403175</v>
@@ -24527,7 +24527,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.784166052960742</v>
+        <v>1.808233387648561</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.879562167304987</v>
@@ -24616,7 +24616,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.784939377208572</v>
+        <v>1.810904722697263</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.893913112353656</v>
@@ -24705,7 +24705,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.774189332125227</v>
+        <v>1.801292843756782</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.788923751840287</v>
@@ -24794,7 +24794,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.7834504909782</v>
+        <v>1.814984808014871</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.826393892715616</v>
@@ -24883,7 +24883,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.788119873399466</v>
+        <v>1.819977794880814</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.101220867221156</v>
@@ -24972,7 +24972,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.811491933810244</v>
+        <v>1.836800677797938</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.000633665392002</v>
@@ -25061,7 +25061,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.814738571268991</v>
+        <v>1.834847669531438</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.768695494916523</v>
@@ -25150,7 +25150,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.824642275848142</v>
+        <v>1.84392302337733</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.87931736544785</v>
@@ -25239,7 +25239,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.814045617654285</v>
+        <v>1.834029209021088</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.814767444647064</v>
@@ -25328,7 +25328,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.815654612665568</v>
+        <v>1.832240760494254</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.747601740138579</v>
@@ -25417,7 +25417,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.82048963272273</v>
+        <v>1.83101471324349</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.796023826864587</v>
@@ -25506,7 +25506,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.85325632173003</v>
+        <v>1.87085881815261</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.915382280270991</v>
@@ -25595,7 +25595,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.856429755221412</v>
+        <v>1.874991684722243</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.7869458579232</v>
@@ -25684,7 +25684,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.848197207115397</v>
+        <v>1.864126986974016</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.755702557269358</v>
@@ -25773,7 +25773,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.82511908818462</v>
+        <v>1.84452526947152</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.827677420449927</v>
@@ -25862,7 +25862,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.824866449606853</v>
+        <v>1.841705729657692</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.843168207148505</v>
@@ -25951,7 +25951,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.819955911368344</v>
+        <v>1.841226006368815</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.897674099533823</v>
@@ -26040,7 +26040,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.838011609014344</v>
+        <v>1.863935293669788</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.875850441774066</v>
@@ -26129,7 +26129,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.8460903069551</v>
+        <v>1.870774973645079</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.798516394443727</v>
@@ -26218,7 +26218,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.851374872330438</v>
+        <v>1.87373747665957</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.780763752935372</v>
@@ -26307,7 +26307,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.850774484827723</v>
+        <v>1.876409005503078</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.766869731928755</v>
@@ -26396,7 +26396,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.835129574129856</v>
+        <v>1.864270022822148</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.992511097133142</v>
@@ -26485,7 +26485,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.849439965893094</v>
+        <v>1.87565137047058</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.024067102270955</v>
@@ -26574,7 +26574,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.850861339725501</v>
+        <v>1.875094662128326</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.983813397100339</v>
@@ -26663,7 +26663,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.85672648110681</v>
+        <v>1.883649648489423</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.0659224490229</v>
@@ -26752,7 +26752,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.860065526221841</v>
+        <v>1.885267924254761</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.877135744780548</v>
@@ -26841,7 +26841,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.860636260418536</v>
+        <v>1.876415167484312</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.956028691606492</v>
@@ -26930,7 +26930,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.846190428152952</v>
+        <v>1.867266608223285</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.354310118701856</v>
@@ -27019,7 +27019,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.853445369121518</v>
+        <v>1.873212509682588</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.848987051861802</v>
@@ -27108,7 +27108,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.875935780132573</v>
+        <v>1.898561023022773</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.140628837704771</v>
@@ -27197,7 +27197,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.864185322642403</v>
+        <v>1.887509255622972</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.201253637246575</v>
@@ -27286,7 +27286,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.872023871721888</v>
+        <v>1.894443180715809</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.093377948472275</v>
@@ -27375,7 +27375,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.868279019715791</v>
+        <v>1.888272469022878</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.045586759081563</v>
@@ -27464,7 +27464,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.860918475366548</v>
+        <v>1.88287673372222</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.428509412084414</v>
@@ -27553,7 +27553,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.860107288795839</v>
+        <v>1.885143655349614</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.024734392279335</v>
@@ -27642,7 +27642,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.862469250383123</v>
+        <v>1.885749484189886</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.070751570415069</v>
